--- a/system/clocks_zcu102.xlsx
+++ b/system/clocks_zcu102.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\work\lime\system\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\macaraeg1\Projects\comp\repositories\lime_axi_delayv\system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E326166-86F7-439A-8EBE-F9A83A816F69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED82E24-FD7E-4268-BB6F-3A59EBFF695F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9240" yWindow="4515" windowWidth="18705" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="850" windowWidth="18780" windowHeight="20750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -858,26 +858,28 @@
   </sheetPr>
   <dimension ref="A1:K108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.7265625" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" customWidth="1"/>
+    <col min="8" max="8" width="10.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -889,13 +891,13 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F4" s="6"/>
       <c r="G4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -917,7 +919,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -940,7 +942,7 @@
         <v>1.5001500150015004</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -963,7 +965,7 @@
         <v>0.16666666666666669</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -989,7 +991,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>84</v>
       </c>
@@ -1022,7 +1024,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>85</v>
       </c>
@@ -1055,7 +1057,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>86</v>
       </c>
@@ -1088,7 +1090,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>87</v>
       </c>
@@ -1121,7 +1123,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>88</v>
       </c>
@@ -1154,7 +1156,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -1184,12 +1186,12 @@
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
@@ -1215,7 +1217,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>90</v>
       </c>
@@ -1245,7 +1247,7 @@
         <v>4.5459091363681828E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>101</v>
       </c>
@@ -1275,7 +1277,7 @@
         <v>0.36367273090945462</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>91</v>
       </c>
@@ -1308,7 +1310,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>92</v>
       </c>
@@ -1322,7 +1324,7 @@
         <v>7</v>
       </c>
       <c r="E23" s="7">
-        <f t="shared" ref="E22:E27" si="7">VLOOKUP($B23,$A$11:$F$16,5,FALSE)/$C23</f>
+        <f t="shared" ref="E23:E27" si="7">VLOOKUP($B23,$A$11:$F$16,5,FALSE)/$C23</f>
         <v>533.28</v>
       </c>
       <c r="F23" s="4">
@@ -1338,7 +1340,7 @@
         <v>9.3759375937593772E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>93</v>
       </c>
@@ -1368,7 +1370,7 @@
         <v>9.0918182727363656E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>94</v>
       </c>
@@ -1398,7 +1400,7 @@
         <v>9.0918182727363656E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>106</v>
       </c>
@@ -1428,7 +1430,7 @@
         <v>9.3759375937593772E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>107</v>
       </c>
@@ -1458,7 +1460,7 @@
         <v>0.50005000500050012</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>95</v>
       </c>
@@ -1466,29 +1468,29 @@
         <v>87</v>
       </c>
       <c r="C28" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D28" s="3">
         <v>1</v>
       </c>
       <c r="E28" s="7">
         <f>VLOOKUP($B28,$A$11:$F$16,5,FALSE)/$C28/$D28</f>
-        <v>249.97499999999999</v>
+        <v>187.48124999999999</v>
       </c>
       <c r="F28" s="4">
         <f t="shared" si="4"/>
-        <v>4.0004000400040001</v>
+        <v>5.3338667200053349</v>
       </c>
       <c r="G28" s="9">
         <f t="shared" si="5"/>
-        <v>4999.5</v>
+        <v>3749.625</v>
       </c>
       <c r="H28" s="9">
         <f t="shared" si="6"/>
-        <v>0.20002000200020001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.26669333600026673</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>102</v>
       </c>
@@ -1518,7 +1520,7 @@
         <v>0.80008000800080004</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>96</v>
       </c>
@@ -1526,29 +1528,29 @@
         <v>87</v>
       </c>
       <c r="C30" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
       </c>
       <c r="E30" s="7">
         <f t="shared" ref="E30:E32" si="8">VLOOKUP($B30,$A$11:$F$16,5,FALSE)/$C30/$D30</f>
-        <v>299.96999999999997</v>
+        <v>187.48124999999999</v>
       </c>
       <c r="F30" s="4">
         <f t="shared" si="4"/>
-        <v>3.333666700003334</v>
+        <v>5.3338667200053349</v>
       </c>
       <c r="G30" s="9">
         <f t="shared" si="5"/>
-        <v>5999.4</v>
+        <v>3749.625</v>
       </c>
       <c r="H30" s="9">
         <f t="shared" si="6"/>
-        <v>0.16668333500016669</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.26669333600026673</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>97</v>
       </c>
@@ -1581,7 +1583,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>98</v>
       </c>
@@ -1614,7 +1616,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>104</v>
       </c>
@@ -1644,7 +1646,7 @@
         <v>4.6879687968796886E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>29</v>
       </c>
@@ -1675,7 +1677,7 @@
         <v>4.1666666666666671E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -1706,7 +1708,7 @@
         <v>0.16666666666666669</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>10</v>
       </c>
@@ -1728,7 +1730,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="s">
         <v>100</v>
       </c>
@@ -1754,7 +1756,7 @@
         <v>0.36367273090945462</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
         <v>11</v>
       </c>
@@ -1780,7 +1782,7 @@
         <v>0.80008000800080004</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="s">
         <v>12</v>
       </c>
@@ -1806,7 +1808,7 @@
         <v>0.80008000800080004</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>27</v>
       </c>
@@ -1815,22 +1817,22 @@
       </c>
       <c r="E41" s="12">
         <f t="shared" si="9"/>
-        <v>299.96999999999997</v>
+        <v>187.48124999999999</v>
       </c>
       <c r="F41" s="4">
         <f>1/$E41*1000</f>
-        <v>3.333666700003334</v>
+        <v>5.3338667200053349</v>
       </c>
       <c r="G41" s="9">
         <f>$E41*$B$3</f>
-        <v>5999.4</v>
+        <v>3749.625</v>
       </c>
       <c r="H41" s="9">
         <f t="shared" si="10"/>
-        <v>0.16668333500016669</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.26669333600026673</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>18</v>
       </c>
@@ -1856,7 +1858,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -1887,7 +1889,7 @@
         <v>0.50005000500050012</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>103</v>
       </c>
@@ -1918,7 +1920,7 @@
         <v>4.6879687968796886E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>116</v>
       </c>
@@ -1949,7 +1951,7 @@
         <v>4.1666666666666671E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>9</v>
       </c>
@@ -1975,7 +1977,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>109</v>
       </c>
@@ -2005,7 +2007,7 @@
         <v>9.3759375937593772E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>105</v>
       </c>
@@ -2035,7 +2037,7 @@
         <v>9.3759375937593772E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>108</v>
       </c>
@@ -2068,7 +2070,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="11" t="s">
         <v>32</v>
       </c>
@@ -2101,7 +2103,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="11" t="s">
         <v>33</v>
       </c>
@@ -2116,25 +2118,25 @@
       </c>
       <c r="E53" s="9">
         <f t="shared" si="11"/>
-        <v>4799.5199999999995</v>
+        <v>2999.7</v>
       </c>
       <c r="F53" s="9">
         <f t="shared" si="12"/>
-        <v>3.333666700003334</v>
+        <v>5.3338667200053349</v>
       </c>
       <c r="G53" s="12">
         <f t="shared" si="13"/>
-        <v>95990.399999999994</v>
+        <v>59994</v>
       </c>
       <c r="H53" s="12">
         <f t="shared" si="14"/>
-        <v>0.16668333500016669</v>
+        <v>0.26669333600026673</v>
       </c>
       <c r="J53" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>31</v>
       </c>
@@ -2149,25 +2151,25 @@
       </c>
       <c r="E54" s="9">
         <f t="shared" si="11"/>
-        <v>2399.7599999999998</v>
+        <v>1499.85</v>
       </c>
       <c r="F54" s="9">
         <f t="shared" si="12"/>
-        <v>3.333666700003334</v>
+        <v>5.3338667200053349</v>
       </c>
       <c r="G54" s="9">
         <f t="shared" si="13"/>
-        <v>47995.199999999997</v>
+        <v>29997</v>
       </c>
       <c r="H54" s="9">
         <f t="shared" si="14"/>
-        <v>0.16668333500016669</v>
+        <v>0.26669333600026673</v>
       </c>
       <c r="J54" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>13</v>
       </c>
@@ -2182,22 +2184,22 @@
       </c>
       <c r="E55" s="9">
         <f t="shared" si="11"/>
-        <v>19198.079999999998</v>
+        <v>11998.8</v>
       </c>
       <c r="F55" s="9">
         <f t="shared" si="12"/>
-        <v>3.333666700003334</v>
+        <v>5.3338667200053349</v>
       </c>
       <c r="G55" s="9">
         <f t="shared" si="13"/>
-        <v>383961.59999999998</v>
+        <v>239976</v>
       </c>
       <c r="H55" s="9">
         <f t="shared" si="14"/>
-        <v>0.16668333500016669</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.26669333600026673</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>21</v>
       </c>
@@ -2227,13 +2229,13 @@
         <v>0.16666666666666669</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
       <c r="H57" s="9"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>49</v>
       </c>
@@ -2245,7 +2247,7 @@
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>42</v>
       </c>
@@ -2260,7 +2262,7 @@
       <c r="G59" s="9"/>
       <c r="H59" s="9"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>43</v>
       </c>
@@ -2275,7 +2277,7 @@
       <c r="G60" s="9"/>
       <c r="H60" s="9"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>44</v>
       </c>
@@ -2290,7 +2292,7 @@
       <c r="G61" s="9"/>
       <c r="H61" s="9"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>50</v>
       </c>
@@ -2305,7 +2307,7 @@
       <c r="G62" s="9"/>
       <c r="H62" s="9"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>51</v>
       </c>
@@ -2320,7 +2322,7 @@
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>52</v>
       </c>
@@ -2335,7 +2337,7 @@
       <c r="G64" s="9"/>
       <c r="H64" s="9"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>53</v>
       </c>
@@ -2350,7 +2352,7 @@
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>54</v>
       </c>
@@ -2366,7 +2368,7 @@
       <c r="G66" s="9"/>
       <c r="H66" s="9"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>55</v>
       </c>
@@ -2382,7 +2384,7 @@
       <c r="G67" s="9"/>
       <c r="H67" s="9"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>34</v>
       </c>
@@ -2411,7 +2413,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>67</v>
       </c>
@@ -2423,33 +2425,33 @@
       </c>
       <c r="D70">
         <f>($B$62+$B$61)*ROUND($B$3/VLOOKUP($B70,$A$20:$F$35,6,FALSE),0)-$C70</f>
-        <v>164</v>
+        <v>92</v>
       </c>
       <c r="E70" s="12">
         <f>$C70*VLOOKUP($B70,$A$20:$F$35,6,FALSE)</f>
-        <v>173.35066840017336</v>
+        <v>277.36106944027739</v>
       </c>
       <c r="F70" s="12">
         <f>$D70*VLOOKUP($B70,$A$20:$F$35,6,FALSE)</f>
-        <v>546.72133880054673</v>
+        <v>490.71573824049079</v>
       </c>
       <c r="G70" s="4">
         <f>$E70/$B$3</f>
-        <v>8.6675334200086684</v>
+        <v>13.86805347201387</v>
       </c>
       <c r="H70" s="4">
         <f>$F70/$B$3</f>
-        <v>27.336066940027337</v>
+        <v>24.535786912024541</v>
       </c>
       <c r="I70" s="4">
         <f>$G70+$H70</f>
-        <v>36.003600360036003</v>
+        <v>38.403840384038411</v>
       </c>
       <c r="K70" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>68</v>
       </c>
@@ -2461,33 +2463,33 @@
       </c>
       <c r="D71">
         <f>($B$63+$B$61)*ROUND($B$3/VLOOKUP($B71,$A$20:$F$35,6,FALSE),0)-$C71</f>
-        <v>147</v>
+        <v>75</v>
       </c>
       <c r="E71" s="12">
         <f t="shared" ref="E71:E77" si="15">$C71*VLOOKUP($B71,$A$20:$F$35,6,FALSE)</f>
-        <v>230.02300230023005</v>
+        <v>368.03680368036811</v>
       </c>
       <c r="F71" s="12">
         <f t="shared" ref="F71:F77" si="16">$D71*VLOOKUP($B71,$A$20:$F$35,6,FALSE)</f>
-        <v>490.0490049004901</v>
+        <v>400.04000400040013</v>
       </c>
       <c r="G71" s="4">
         <f t="shared" ref="G71:G77" si="17">$E71/$B$3</f>
-        <v>11.501150115011502</v>
+        <v>18.401840184018404</v>
       </c>
       <c r="H71" s="4">
         <f t="shared" ref="H71:H77" si="18">$F71/$B$3</f>
-        <v>24.502450245024505</v>
+        <v>20.002000200020007</v>
       </c>
       <c r="I71" s="4">
         <f t="shared" ref="I71:I77" si="19">$G71+$H71</f>
-        <v>36.003600360036003</v>
+        <v>38.403840384038411</v>
       </c>
       <c r="K71" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>69</v>
       </c>
@@ -2499,33 +2501,33 @@
       </c>
       <c r="D72">
         <f>($B$64+$B$66+$B$61)*ROUND($B$3/VLOOKUP($B72,$A$20:$F$35,6,FALSE),0)-$C72</f>
-        <v>584</v>
+        <v>372</v>
       </c>
       <c r="E72" s="12">
         <f t="shared" si="15"/>
-        <v>173.35066840017336</v>
+        <v>277.36106944027739</v>
       </c>
       <c r="F72" s="12">
         <f t="shared" si="16"/>
-        <v>1946.8613528019471</v>
+        <v>1984.1984198419846</v>
       </c>
       <c r="G72" s="4">
         <f t="shared" si="17"/>
-        <v>8.6675334200086684</v>
+        <v>13.86805347201387</v>
       </c>
       <c r="H72" s="4">
         <f t="shared" si="18"/>
-        <v>97.34306764009736</v>
+        <v>99.209920992099228</v>
       </c>
       <c r="I72" s="4">
         <f t="shared" si="19"/>
-        <v>106.01060106010603</v>
+        <v>113.0779744641131</v>
       </c>
       <c r="K72" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>70</v>
       </c>
@@ -2537,33 +2539,33 @@
       </c>
       <c r="D73">
         <f>($B$65+$B$67+$B$61)*ROUND($B$3/VLOOKUP($B73,$A$20:$F$35,6,FALSE),0)-$C73</f>
-        <v>441</v>
+        <v>271</v>
       </c>
       <c r="E73" s="12">
         <f t="shared" si="15"/>
-        <v>230.02300230023005</v>
+        <v>368.03680368036811</v>
       </c>
       <c r="F73" s="12">
         <f t="shared" si="16"/>
-        <v>1470.1470147014702</v>
+        <v>1445.4778811214458</v>
       </c>
       <c r="G73" s="4">
         <f t="shared" si="17"/>
-        <v>11.501150115011502</v>
+        <v>18.401840184018404</v>
       </c>
       <c r="H73" s="4">
         <f t="shared" si="18"/>
-        <v>73.507350735073516</v>
+        <v>72.273894056072294</v>
       </c>
       <c r="I73" s="4">
         <f t="shared" si="19"/>
-        <v>85.008500850085014</v>
+        <v>90.675734240090691</v>
       </c>
       <c r="K73" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>71</v>
       </c>
@@ -2575,33 +2577,33 @@
       </c>
       <c r="D74">
         <f>($B$62)*ROUND($B$3/VLOOKUP($B74,$A$20:$F$35,6,FALSE),0)-$C74</f>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E74" s="12">
         <f t="shared" si="15"/>
-        <v>160.01600160016002</v>
+        <v>256.02560256025606</v>
       </c>
       <c r="F74" s="12">
         <f t="shared" si="16"/>
-        <v>80.008000800080012</v>
+        <v>0</v>
       </c>
       <c r="G74" s="4">
         <f t="shared" si="17"/>
-        <v>8.0008000800080019</v>
+        <v>12.801280128012802</v>
       </c>
       <c r="H74" s="4">
         <f t="shared" si="18"/>
-        <v>4.000400040004001</v>
+        <v>0</v>
       </c>
       <c r="I74" s="4">
         <f t="shared" si="19"/>
-        <v>12.001200120012003</v>
+        <v>12.801280128012802</v>
       </c>
       <c r="K74" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>72</v>
       </c>
@@ -2613,33 +2615,33 @@
       </c>
       <c r="D75">
         <f>($B$63)*ROUND($B$3/VLOOKUP($B75,$A$20:$F$35,6,FALSE),0)-$C75</f>
-        <v>6</v>
+        <v>-18</v>
       </c>
       <c r="E75" s="12">
         <f t="shared" si="15"/>
-        <v>220.02200220022004</v>
+        <v>352.03520352035213</v>
       </c>
       <c r="F75" s="12">
         <f t="shared" si="16"/>
-        <v>20.002000200020003</v>
+        <v>-96.009600960096023</v>
       </c>
       <c r="G75" s="4">
         <f t="shared" si="17"/>
-        <v>11.001100110011002</v>
+        <v>17.601760176017606</v>
       </c>
       <c r="H75" s="4">
         <f t="shared" si="18"/>
-        <v>1.0001000100010002</v>
+        <v>-4.8004800480048013</v>
       </c>
       <c r="I75" s="4">
         <f t="shared" si="19"/>
-        <v>12.001200120012003</v>
+        <v>12.801280128012806</v>
       </c>
       <c r="K75" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>73</v>
       </c>
@@ -2651,33 +2653,33 @@
       </c>
       <c r="D76">
         <f>($B$64+$B$66)*ROUND($B$3/VLOOKUP($B76,$A$20:$F$35,6,FALSE),0)-$C76</f>
-        <v>444</v>
+        <v>280</v>
       </c>
       <c r="E76" s="12">
         <f t="shared" si="15"/>
-        <v>160.01600160016002</v>
+        <v>256.02560256025606</v>
       </c>
       <c r="F76" s="12">
         <f t="shared" si="16"/>
-        <v>1480.1480148014803</v>
+        <v>1493.4826816014938</v>
       </c>
       <c r="G76" s="4">
         <f t="shared" si="17"/>
-        <v>8.0008000800080019</v>
+        <v>12.801280128012802</v>
       </c>
       <c r="H76" s="4">
         <f t="shared" si="18"/>
-        <v>74.007400740074019</v>
+        <v>74.674134080074694</v>
       </c>
       <c r="I76" s="4">
         <f t="shared" si="19"/>
-        <v>82.008200820082024</v>
+        <v>87.4754142080875</v>
       </c>
       <c r="K76" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>74</v>
       </c>
@@ -2689,56 +2691,56 @@
       </c>
       <c r="D77">
         <f>($B$65+$B$67)*ROUND($B$3/VLOOKUP($B77,$A$20:$F$35,6,FALSE),0)-$C77</f>
-        <v>300</v>
+        <v>178</v>
       </c>
       <c r="E77" s="12">
         <f t="shared" si="15"/>
-        <v>220.02200220022004</v>
+        <v>352.03520352035213</v>
       </c>
       <c r="F77" s="12">
         <f t="shared" si="16"/>
-        <v>1000.1000100010002</v>
+        <v>949.42827616094962</v>
       </c>
       <c r="G77" s="4">
         <f t="shared" si="17"/>
-        <v>11.001100110011002</v>
+        <v>17.601760176017606</v>
       </c>
       <c r="H77" s="4">
         <f t="shared" si="18"/>
-        <v>50.005000500050009</v>
+        <v>47.47141380804748</v>
       </c>
       <c r="I77" s="4">
         <f t="shared" si="19"/>
-        <v>61.006100610061011</v>
+        <v>65.073173984065079</v>
       </c>
       <c r="K77" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="79" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="84" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="90" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="104" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="108" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup scale="98" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -2751,7 +2753,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2763,7 +2765,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/system/clocks_zcu102.xlsx
+++ b/system/clocks_zcu102.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\macaraeg1\Projects\comp\repositories\lime_axi_delayv\system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED82E24-FD7E-4268-BB6F-3A59EBFF695F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3325AF-7BD6-4BA6-AE9B-C8DE80AE8333}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="850" windowWidth="18780" windowHeight="20750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="340" yWindow="340" windowWidth="13570" windowHeight="20680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -859,7 +859,7 @@
   <dimension ref="A1:K108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1468,26 +1468,26 @@
         <v>87</v>
       </c>
       <c r="C28" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D28" s="3">
         <v>1</v>
       </c>
       <c r="E28" s="7">
         <f>VLOOKUP($B28,$A$11:$F$16,5,FALSE)/$C28/$D28</f>
-        <v>187.48124999999999</v>
+        <v>249.97499999999999</v>
       </c>
       <c r="F28" s="4">
         <f t="shared" si="4"/>
-        <v>5.3338667200053349</v>
+        <v>4.0004000400040001</v>
       </c>
       <c r="G28" s="9">
         <f t="shared" si="5"/>
-        <v>3749.625</v>
+        <v>4999.5</v>
       </c>
       <c r="H28" s="9">
         <f t="shared" si="6"/>
-        <v>0.26669333600026673</v>
+        <v>0.20002000200020001</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
@@ -1528,26 +1528,26 @@
         <v>87</v>
       </c>
       <c r="C30" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
       </c>
       <c r="E30" s="7">
         <f t="shared" ref="E30:E32" si="8">VLOOKUP($B30,$A$11:$F$16,5,FALSE)/$C30/$D30</f>
-        <v>187.48124999999999</v>
+        <v>249.97499999999999</v>
       </c>
       <c r="F30" s="4">
         <f t="shared" si="4"/>
-        <v>5.3338667200053349</v>
+        <v>4.0004000400040001</v>
       </c>
       <c r="G30" s="9">
         <f t="shared" si="5"/>
-        <v>3749.625</v>
+        <v>4999.5</v>
       </c>
       <c r="H30" s="9">
         <f t="shared" si="6"/>
-        <v>0.26669333600026673</v>
+        <v>0.20002000200020001</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
@@ -1817,19 +1817,19 @@
       </c>
       <c r="E41" s="12">
         <f t="shared" si="9"/>
-        <v>187.48124999999999</v>
+        <v>249.97499999999999</v>
       </c>
       <c r="F41" s="4">
         <f>1/$E41*1000</f>
-        <v>5.3338667200053349</v>
+        <v>4.0004000400040001</v>
       </c>
       <c r="G41" s="9">
         <f>$E41*$B$3</f>
-        <v>3749.625</v>
+        <v>4999.5</v>
       </c>
       <c r="H41" s="9">
         <f t="shared" si="10"/>
-        <v>0.26669333600026673</v>
+        <v>0.20002000200020001</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
@@ -2118,19 +2118,19 @@
       </c>
       <c r="E53" s="9">
         <f t="shared" si="11"/>
-        <v>2999.7</v>
+        <v>3999.6</v>
       </c>
       <c r="F53" s="9">
         <f t="shared" si="12"/>
-        <v>5.3338667200053349</v>
+        <v>4.0004000400040001</v>
       </c>
       <c r="G53" s="12">
         <f t="shared" si="13"/>
-        <v>59994</v>
+        <v>79992</v>
       </c>
       <c r="H53" s="12">
         <f t="shared" si="14"/>
-        <v>0.26669333600026673</v>
+        <v>0.20002000200020001</v>
       </c>
       <c r="J53" t="s">
         <v>35</v>
@@ -2151,19 +2151,19 @@
       </c>
       <c r="E54" s="9">
         <f t="shared" si="11"/>
-        <v>1499.85</v>
+        <v>1999.8</v>
       </c>
       <c r="F54" s="9">
         <f t="shared" si="12"/>
-        <v>5.3338667200053349</v>
+        <v>4.0004000400040001</v>
       </c>
       <c r="G54" s="9">
         <f t="shared" si="13"/>
-        <v>29997</v>
+        <v>39996</v>
       </c>
       <c r="H54" s="9">
         <f t="shared" si="14"/>
-        <v>0.26669333600026673</v>
+        <v>0.20002000200020001</v>
       </c>
       <c r="J54" t="s">
         <v>36</v>
@@ -2184,19 +2184,19 @@
       </c>
       <c r="E55" s="9">
         <f t="shared" si="11"/>
-        <v>11998.8</v>
+        <v>15998.4</v>
       </c>
       <c r="F55" s="9">
         <f t="shared" si="12"/>
-        <v>5.3338667200053349</v>
+        <v>4.0004000400040001</v>
       </c>
       <c r="G55" s="9">
         <f t="shared" si="13"/>
-        <v>239976</v>
+        <v>319968</v>
       </c>
       <c r="H55" s="9">
         <f t="shared" si="14"/>
-        <v>0.26669333600026673</v>
+        <v>0.20002000200020001</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
@@ -2425,27 +2425,27 @@
       </c>
       <c r="D70">
         <f>($B$62+$B$61)*ROUND($B$3/VLOOKUP($B70,$A$20:$F$35,6,FALSE),0)-$C70</f>
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="E70" s="12">
         <f>$C70*VLOOKUP($B70,$A$20:$F$35,6,FALSE)</f>
-        <v>277.36106944027739</v>
+        <v>208.020802080208</v>
       </c>
       <c r="F70" s="12">
         <f>$D70*VLOOKUP($B70,$A$20:$F$35,6,FALSE)</f>
-        <v>490.71573824049079</v>
+        <v>512.05120512051201</v>
       </c>
       <c r="G70" s="4">
         <f>$E70/$B$3</f>
-        <v>13.86805347201387</v>
+        <v>10.4010401040104</v>
       </c>
       <c r="H70" s="4">
         <f>$F70/$B$3</f>
-        <v>24.535786912024541</v>
+        <v>25.602560256025601</v>
       </c>
       <c r="I70" s="4">
         <f>$G70+$H70</f>
-        <v>38.403840384038411</v>
+        <v>36.003600360036003</v>
       </c>
       <c r="K70" t="s">
         <v>75</v>
@@ -2463,27 +2463,27 @@
       </c>
       <c r="D71">
         <f>($B$63+$B$61)*ROUND($B$3/VLOOKUP($B71,$A$20:$F$35,6,FALSE),0)-$C71</f>
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="E71" s="12">
         <f t="shared" ref="E71:E77" si="15">$C71*VLOOKUP($B71,$A$20:$F$35,6,FALSE)</f>
-        <v>368.03680368036811</v>
+        <v>276.02760276027601</v>
       </c>
       <c r="F71" s="12">
         <f t="shared" ref="F71:F77" si="16">$D71*VLOOKUP($B71,$A$20:$F$35,6,FALSE)</f>
-        <v>400.04000400040013</v>
+        <v>444.044404440444</v>
       </c>
       <c r="G71" s="4">
         <f t="shared" ref="G71:G77" si="17">$E71/$B$3</f>
-        <v>18.401840184018404</v>
+        <v>13.801380138013801</v>
       </c>
       <c r="H71" s="4">
         <f t="shared" ref="H71:H77" si="18">$F71/$B$3</f>
-        <v>20.002000200020007</v>
+        <v>22.202220222022198</v>
       </c>
       <c r="I71" s="4">
         <f t="shared" ref="I71:I77" si="19">$G71+$H71</f>
-        <v>38.403840384038411</v>
+        <v>36.003600360036003</v>
       </c>
       <c r="K71" t="s">
         <v>76</v>
@@ -2501,27 +2501,27 @@
       </c>
       <c r="D72">
         <f>($B$64+$B$66+$B$61)*ROUND($B$3/VLOOKUP($B72,$A$20:$F$35,6,FALSE),0)-$C72</f>
-        <v>372</v>
+        <v>478</v>
       </c>
       <c r="E72" s="12">
         <f t="shared" si="15"/>
-        <v>277.36106944027739</v>
+        <v>208.020802080208</v>
       </c>
       <c r="F72" s="12">
         <f t="shared" si="16"/>
-        <v>1984.1984198419846</v>
+        <v>1912.1912191219121</v>
       </c>
       <c r="G72" s="4">
         <f t="shared" si="17"/>
-        <v>13.86805347201387</v>
+        <v>10.4010401040104</v>
       </c>
       <c r="H72" s="4">
         <f t="shared" si="18"/>
-        <v>99.209920992099228</v>
+        <v>95.609560956095606</v>
       </c>
       <c r="I72" s="4">
         <f t="shared" si="19"/>
-        <v>113.0779744641131</v>
+        <v>106.01060106010601</v>
       </c>
       <c r="K72" t="s">
         <v>77</v>
@@ -2539,27 +2539,27 @@
       </c>
       <c r="D73">
         <f>($B$65+$B$67+$B$61)*ROUND($B$3/VLOOKUP($B73,$A$20:$F$35,6,FALSE),0)-$C73</f>
-        <v>271</v>
+        <v>356</v>
       </c>
       <c r="E73" s="12">
         <f t="shared" si="15"/>
-        <v>368.03680368036811</v>
+        <v>276.02760276027601</v>
       </c>
       <c r="F73" s="12">
         <f t="shared" si="16"/>
-        <v>1445.4778811214458</v>
+        <v>1424.1424142414239</v>
       </c>
       <c r="G73" s="4">
         <f t="shared" si="17"/>
-        <v>18.401840184018404</v>
+        <v>13.801380138013801</v>
       </c>
       <c r="H73" s="4">
         <f t="shared" si="18"/>
-        <v>72.273894056072294</v>
+        <v>71.207120712071202</v>
       </c>
       <c r="I73" s="4">
         <f t="shared" si="19"/>
-        <v>90.675734240090691</v>
+        <v>85.008500850084999</v>
       </c>
       <c r="K73" t="s">
         <v>78</v>
@@ -2577,27 +2577,27 @@
       </c>
       <c r="D74">
         <f>($B$62)*ROUND($B$3/VLOOKUP($B74,$A$20:$F$35,6,FALSE),0)-$C74</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E74" s="12">
         <f t="shared" si="15"/>
-        <v>256.02560256025606</v>
+        <v>192.01920192019202</v>
       </c>
       <c r="F74" s="12">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>48.004800480048004</v>
       </c>
       <c r="G74" s="4">
         <f t="shared" si="17"/>
-        <v>12.801280128012802</v>
+        <v>9.6009600960096009</v>
       </c>
       <c r="H74" s="4">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>2.4002400240024002</v>
       </c>
       <c r="I74" s="4">
         <f t="shared" si="19"/>
-        <v>12.801280128012802</v>
+        <v>12.001200120012001</v>
       </c>
       <c r="K74" t="s">
         <v>79</v>
@@ -2615,27 +2615,27 @@
       </c>
       <c r="D75">
         <f>($B$63)*ROUND($B$3/VLOOKUP($B75,$A$20:$F$35,6,FALSE),0)-$C75</f>
-        <v>-18</v>
+        <v>-6</v>
       </c>
       <c r="E75" s="12">
         <f t="shared" si="15"/>
-        <v>352.03520352035213</v>
+        <v>264.026402640264</v>
       </c>
       <c r="F75" s="12">
         <f t="shared" si="16"/>
-        <v>-96.009600960096023</v>
+        <v>-24.002400240024002</v>
       </c>
       <c r="G75" s="4">
         <f t="shared" si="17"/>
-        <v>17.601760176017606</v>
+        <v>13.201320132013199</v>
       </c>
       <c r="H75" s="4">
         <f t="shared" si="18"/>
-        <v>-4.8004800480048013</v>
+        <v>-1.2001200120012001</v>
       </c>
       <c r="I75" s="4">
         <f t="shared" si="19"/>
-        <v>12.801280128012806</v>
+        <v>12.001200120011999</v>
       </c>
       <c r="K75" t="s">
         <v>80</v>
@@ -2653,27 +2653,27 @@
       </c>
       <c r="D76">
         <f>($B$64+$B$66)*ROUND($B$3/VLOOKUP($B76,$A$20:$F$35,6,FALSE),0)-$C76</f>
-        <v>280</v>
+        <v>362</v>
       </c>
       <c r="E76" s="12">
         <f t="shared" si="15"/>
-        <v>256.02560256025606</v>
+        <v>192.01920192019202</v>
       </c>
       <c r="F76" s="12">
         <f t="shared" si="16"/>
-        <v>1493.4826816014938</v>
+        <v>1448.1448144814481</v>
       </c>
       <c r="G76" s="4">
         <f t="shared" si="17"/>
-        <v>12.801280128012802</v>
+        <v>9.6009600960096009</v>
       </c>
       <c r="H76" s="4">
         <f t="shared" si="18"/>
-        <v>74.674134080074694</v>
+        <v>72.407240724072409</v>
       </c>
       <c r="I76" s="4">
         <f t="shared" si="19"/>
-        <v>87.4754142080875</v>
+        <v>82.00820082008201</v>
       </c>
       <c r="K76" t="s">
         <v>81</v>
@@ -2691,27 +2691,27 @@
       </c>
       <c r="D77">
         <f>($B$65+$B$67)*ROUND($B$3/VLOOKUP($B77,$A$20:$F$35,6,FALSE),0)-$C77</f>
-        <v>178</v>
+        <v>239</v>
       </c>
       <c r="E77" s="12">
         <f t="shared" si="15"/>
-        <v>352.03520352035213</v>
+        <v>264.026402640264</v>
       </c>
       <c r="F77" s="12">
         <f t="shared" si="16"/>
-        <v>949.42827616094962</v>
+        <v>956.09560956095606</v>
       </c>
       <c r="G77" s="4">
         <f t="shared" si="17"/>
-        <v>17.601760176017606</v>
+        <v>13.201320132013199</v>
       </c>
       <c r="H77" s="4">
         <f t="shared" si="18"/>
-        <v>47.47141380804748</v>
+        <v>47.804780478047803</v>
       </c>
       <c r="I77" s="4">
         <f t="shared" si="19"/>
-        <v>65.073173984065079</v>
+        <v>61.006100610061004</v>
       </c>
       <c r="K77" t="s">
         <v>82</v>

--- a/system/clocks_zcu102.xlsx
+++ b/system/clocks_zcu102.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\macaraeg1\Projects\comp\repositories\lime_axi_delayv\system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3325AF-7BD6-4BA6-AE9B-C8DE80AE8333}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463A8796-A5B6-4E13-A2F4-362B378B386D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="340" windowWidth="13570" windowHeight="20680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10" yWindow="0" windowWidth="19870" windowHeight="20950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -859,7 +859,7 @@
   <dimension ref="A1:K108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1468,26 +1468,26 @@
         <v>87</v>
       </c>
       <c r="C28" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D28" s="3">
         <v>1</v>
       </c>
       <c r="E28" s="7">
         <f>VLOOKUP($B28,$A$11:$F$16,5,FALSE)/$C28/$D28</f>
-        <v>249.97499999999999</v>
+        <v>187.48124999999999</v>
       </c>
       <c r="F28" s="4">
         <f t="shared" si="4"/>
-        <v>4.0004000400040001</v>
+        <v>5.3338667200053349</v>
       </c>
       <c r="G28" s="9">
         <f t="shared" si="5"/>
-        <v>4999.5</v>
+        <v>3749.625</v>
       </c>
       <c r="H28" s="9">
         <f t="shared" si="6"/>
-        <v>0.20002000200020001</v>
+        <v>0.26669333600026673</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
@@ -1528,26 +1528,26 @@
         <v>87</v>
       </c>
       <c r="C30" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
       </c>
       <c r="E30" s="7">
         <f t="shared" ref="E30:E32" si="8">VLOOKUP($B30,$A$11:$F$16,5,FALSE)/$C30/$D30</f>
-        <v>249.97499999999999</v>
+        <v>187.48124999999999</v>
       </c>
       <c r="F30" s="4">
         <f t="shared" si="4"/>
-        <v>4.0004000400040001</v>
+        <v>5.3338667200053349</v>
       </c>
       <c r="G30" s="9">
         <f t="shared" si="5"/>
-        <v>4999.5</v>
+        <v>3749.625</v>
       </c>
       <c r="H30" s="9">
         <f t="shared" si="6"/>
-        <v>0.20002000200020001</v>
+        <v>0.26669333600026673</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
@@ -1817,19 +1817,19 @@
       </c>
       <c r="E41" s="12">
         <f t="shared" si="9"/>
-        <v>249.97499999999999</v>
+        <v>187.48124999999999</v>
       </c>
       <c r="F41" s="4">
         <f>1/$E41*1000</f>
-        <v>4.0004000400040001</v>
+        <v>5.3338667200053349</v>
       </c>
       <c r="G41" s="9">
         <f>$E41*$B$3</f>
-        <v>4999.5</v>
+        <v>3749.625</v>
       </c>
       <c r="H41" s="9">
         <f t="shared" si="10"/>
-        <v>0.20002000200020001</v>
+        <v>0.26669333600026673</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
@@ -2118,19 +2118,19 @@
       </c>
       <c r="E53" s="9">
         <f t="shared" si="11"/>
-        <v>3999.6</v>
+        <v>2999.7</v>
       </c>
       <c r="F53" s="9">
         <f t="shared" si="12"/>
-        <v>4.0004000400040001</v>
+        <v>5.3338667200053349</v>
       </c>
       <c r="G53" s="12">
         <f t="shared" si="13"/>
-        <v>79992</v>
+        <v>59994</v>
       </c>
       <c r="H53" s="12">
         <f t="shared" si="14"/>
-        <v>0.20002000200020001</v>
+        <v>0.26669333600026673</v>
       </c>
       <c r="J53" t="s">
         <v>35</v>
@@ -2151,19 +2151,19 @@
       </c>
       <c r="E54" s="9">
         <f t="shared" si="11"/>
-        <v>1999.8</v>
+        <v>1499.85</v>
       </c>
       <c r="F54" s="9">
         <f t="shared" si="12"/>
-        <v>4.0004000400040001</v>
+        <v>5.3338667200053349</v>
       </c>
       <c r="G54" s="9">
         <f t="shared" si="13"/>
-        <v>39996</v>
+        <v>29997</v>
       </c>
       <c r="H54" s="9">
         <f t="shared" si="14"/>
-        <v>0.20002000200020001</v>
+        <v>0.26669333600026673</v>
       </c>
       <c r="J54" t="s">
         <v>36</v>
@@ -2184,19 +2184,19 @@
       </c>
       <c r="E55" s="9">
         <f t="shared" si="11"/>
-        <v>15998.4</v>
+        <v>11998.8</v>
       </c>
       <c r="F55" s="9">
         <f t="shared" si="12"/>
-        <v>4.0004000400040001</v>
+        <v>5.3338667200053349</v>
       </c>
       <c r="G55" s="9">
         <f t="shared" si="13"/>
-        <v>319968</v>
+        <v>239976</v>
       </c>
       <c r="H55" s="9">
         <f t="shared" si="14"/>
-        <v>0.20002000200020001</v>
+        <v>0.26669333600026673</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
@@ -2425,27 +2425,27 @@
       </c>
       <c r="D70">
         <f>($B$62+$B$61)*ROUND($B$3/VLOOKUP($B70,$A$20:$F$35,6,FALSE),0)-$C70</f>
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="E70" s="12">
         <f>$C70*VLOOKUP($B70,$A$20:$F$35,6,FALSE)</f>
-        <v>208.020802080208</v>
+        <v>277.36106944027739</v>
       </c>
       <c r="F70" s="12">
         <f>$D70*VLOOKUP($B70,$A$20:$F$35,6,FALSE)</f>
-        <v>512.05120512051201</v>
+        <v>490.71573824049079</v>
       </c>
       <c r="G70" s="4">
         <f>$E70/$B$3</f>
-        <v>10.4010401040104</v>
+        <v>13.86805347201387</v>
       </c>
       <c r="H70" s="4">
         <f>$F70/$B$3</f>
-        <v>25.602560256025601</v>
+        <v>24.535786912024541</v>
       </c>
       <c r="I70" s="4">
         <f>$G70+$H70</f>
-        <v>36.003600360036003</v>
+        <v>38.403840384038411</v>
       </c>
       <c r="K70" t="s">
         <v>75</v>
@@ -2463,27 +2463,27 @@
       </c>
       <c r="D71">
         <f>($B$63+$B$61)*ROUND($B$3/VLOOKUP($B71,$A$20:$F$35,6,FALSE),0)-$C71</f>
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="E71" s="12">
         <f t="shared" ref="E71:E77" si="15">$C71*VLOOKUP($B71,$A$20:$F$35,6,FALSE)</f>
-        <v>276.02760276027601</v>
+        <v>368.03680368036811</v>
       </c>
       <c r="F71" s="12">
         <f t="shared" ref="F71:F77" si="16">$D71*VLOOKUP($B71,$A$20:$F$35,6,FALSE)</f>
-        <v>444.044404440444</v>
+        <v>400.04000400040013</v>
       </c>
       <c r="G71" s="4">
         <f t="shared" ref="G71:G77" si="17">$E71/$B$3</f>
-        <v>13.801380138013801</v>
+        <v>18.401840184018404</v>
       </c>
       <c r="H71" s="4">
         <f t="shared" ref="H71:H77" si="18">$F71/$B$3</f>
-        <v>22.202220222022198</v>
+        <v>20.002000200020007</v>
       </c>
       <c r="I71" s="4">
         <f t="shared" ref="I71:I77" si="19">$G71+$H71</f>
-        <v>36.003600360036003</v>
+        <v>38.403840384038411</v>
       </c>
       <c r="K71" t="s">
         <v>76</v>
@@ -2501,27 +2501,27 @@
       </c>
       <c r="D72">
         <f>($B$64+$B$66+$B$61)*ROUND($B$3/VLOOKUP($B72,$A$20:$F$35,6,FALSE),0)-$C72</f>
-        <v>478</v>
+        <v>372</v>
       </c>
       <c r="E72" s="12">
         <f t="shared" si="15"/>
-        <v>208.020802080208</v>
+        <v>277.36106944027739</v>
       </c>
       <c r="F72" s="12">
         <f t="shared" si="16"/>
-        <v>1912.1912191219121</v>
+        <v>1984.1984198419846</v>
       </c>
       <c r="G72" s="4">
         <f t="shared" si="17"/>
-        <v>10.4010401040104</v>
+        <v>13.86805347201387</v>
       </c>
       <c r="H72" s="4">
         <f t="shared" si="18"/>
-        <v>95.609560956095606</v>
+        <v>99.209920992099228</v>
       </c>
       <c r="I72" s="4">
         <f t="shared" si="19"/>
-        <v>106.01060106010601</v>
+        <v>113.0779744641131</v>
       </c>
       <c r="K72" t="s">
         <v>77</v>
@@ -2539,27 +2539,27 @@
       </c>
       <c r="D73">
         <f>($B$65+$B$67+$B$61)*ROUND($B$3/VLOOKUP($B73,$A$20:$F$35,6,FALSE),0)-$C73</f>
-        <v>356</v>
+        <v>271</v>
       </c>
       <c r="E73" s="12">
         <f t="shared" si="15"/>
-        <v>276.02760276027601</v>
+        <v>368.03680368036811</v>
       </c>
       <c r="F73" s="12">
         <f t="shared" si="16"/>
-        <v>1424.1424142414239</v>
+        <v>1445.4778811214458</v>
       </c>
       <c r="G73" s="4">
         <f t="shared" si="17"/>
-        <v>13.801380138013801</v>
+        <v>18.401840184018404</v>
       </c>
       <c r="H73" s="4">
         <f t="shared" si="18"/>
-        <v>71.207120712071202</v>
+        <v>72.273894056072294</v>
       </c>
       <c r="I73" s="4">
         <f t="shared" si="19"/>
-        <v>85.008500850084999</v>
+        <v>90.675734240090691</v>
       </c>
       <c r="K73" t="s">
         <v>78</v>
@@ -2577,27 +2577,27 @@
       </c>
       <c r="D74">
         <f>($B$62)*ROUND($B$3/VLOOKUP($B74,$A$20:$F$35,6,FALSE),0)-$C74</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E74" s="12">
         <f t="shared" si="15"/>
-        <v>192.01920192019202</v>
+        <v>256.02560256025606</v>
       </c>
       <c r="F74" s="12">
         <f t="shared" si="16"/>
-        <v>48.004800480048004</v>
+        <v>0</v>
       </c>
       <c r="G74" s="4">
         <f t="shared" si="17"/>
-        <v>9.6009600960096009</v>
+        <v>12.801280128012802</v>
       </c>
       <c r="H74" s="4">
         <f t="shared" si="18"/>
-        <v>2.4002400240024002</v>
+        <v>0</v>
       </c>
       <c r="I74" s="4">
         <f t="shared" si="19"/>
-        <v>12.001200120012001</v>
+        <v>12.801280128012802</v>
       </c>
       <c r="K74" t="s">
         <v>79</v>
@@ -2615,27 +2615,27 @@
       </c>
       <c r="D75">
         <f>($B$63)*ROUND($B$3/VLOOKUP($B75,$A$20:$F$35,6,FALSE),0)-$C75</f>
-        <v>-6</v>
+        <v>-18</v>
       </c>
       <c r="E75" s="12">
         <f t="shared" si="15"/>
-        <v>264.026402640264</v>
+        <v>352.03520352035213</v>
       </c>
       <c r="F75" s="12">
         <f t="shared" si="16"/>
-        <v>-24.002400240024002</v>
+        <v>-96.009600960096023</v>
       </c>
       <c r="G75" s="4">
         <f t="shared" si="17"/>
-        <v>13.201320132013199</v>
+        <v>17.601760176017606</v>
       </c>
       <c r="H75" s="4">
         <f t="shared" si="18"/>
-        <v>-1.2001200120012001</v>
+        <v>-4.8004800480048013</v>
       </c>
       <c r="I75" s="4">
         <f t="shared" si="19"/>
-        <v>12.001200120011999</v>
+        <v>12.801280128012806</v>
       </c>
       <c r="K75" t="s">
         <v>80</v>
@@ -2653,27 +2653,27 @@
       </c>
       <c r="D76">
         <f>($B$64+$B$66)*ROUND($B$3/VLOOKUP($B76,$A$20:$F$35,6,FALSE),0)-$C76</f>
-        <v>362</v>
+        <v>280</v>
       </c>
       <c r="E76" s="12">
         <f t="shared" si="15"/>
-        <v>192.01920192019202</v>
+        <v>256.02560256025606</v>
       </c>
       <c r="F76" s="12">
         <f t="shared" si="16"/>
-        <v>1448.1448144814481</v>
+        <v>1493.4826816014938</v>
       </c>
       <c r="G76" s="4">
         <f t="shared" si="17"/>
-        <v>9.6009600960096009</v>
+        <v>12.801280128012802</v>
       </c>
       <c r="H76" s="4">
         <f t="shared" si="18"/>
-        <v>72.407240724072409</v>
+        <v>74.674134080074694</v>
       </c>
       <c r="I76" s="4">
         <f t="shared" si="19"/>
-        <v>82.00820082008201</v>
+        <v>87.4754142080875</v>
       </c>
       <c r="K76" t="s">
         <v>81</v>
@@ -2691,27 +2691,27 @@
       </c>
       <c r="D77">
         <f>($B$65+$B$67)*ROUND($B$3/VLOOKUP($B77,$A$20:$F$35,6,FALSE),0)-$C77</f>
-        <v>239</v>
+        <v>178</v>
       </c>
       <c r="E77" s="12">
         <f t="shared" si="15"/>
-        <v>264.026402640264</v>
+        <v>352.03520352035213</v>
       </c>
       <c r="F77" s="12">
         <f t="shared" si="16"/>
-        <v>956.09560956095606</v>
+        <v>949.42827616094962</v>
       </c>
       <c r="G77" s="4">
         <f t="shared" si="17"/>
-        <v>13.201320132013199</v>
+        <v>17.601760176017606</v>
       </c>
       <c r="H77" s="4">
         <f t="shared" si="18"/>
-        <v>47.804780478047803</v>
+        <v>47.47141380804748</v>
       </c>
       <c r="I77" s="4">
         <f t="shared" si="19"/>
-        <v>61.006100610061004</v>
+        <v>65.073173984065079</v>
       </c>
       <c r="K77" t="s">
         <v>82</v>

--- a/system/clocks_zcu102.xlsx
+++ b/system/clocks_zcu102.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\macaraeg1\Projects\comp\repositories\lime_axi_delayv\system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463A8796-A5B6-4E13-A2F4-362B378B386D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600F1BCE-1DE0-48FF-A7CE-2AA79AF511A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10" yWindow="0" windowWidth="19870" windowHeight="20950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -858,8 +858,8 @@
   </sheetPr>
   <dimension ref="A1:K108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
